--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-qat/1_quant-dynamic_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-qat/1_quant-dynamic_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.226</v>
+        <v>0.457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.226</v>
+        <v>0.457</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.144</v>
+        <v>0.529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144</v>
+        <v>0.529</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.159</v>
+        <v>0.254</v>
       </c>
       <c r="C6" t="n">
-        <v>0.159</v>
+        <v>0.254</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.080667937989347</v>
+        <v>2.007150030112825</v>
       </c>
       <c r="C4" t="n">
-        <v>2.052227561245672</v>
+        <v>2.026558315264992</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.37</v>
+        <v>0.97</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1873620524050734</v>
+        <v>0.2161019383560794</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1922022471484007</v>
+        <v>0.227769807964789</v>
       </c>
       <c r="G4" t="n">
-        <v>2.58</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="C5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.415165331086779</v>
+        <v>9.633487024512677</v>
       </c>
       <c r="C6" t="n">
-        <v>8.820292769385139</v>
+        <v>9.76829749634614</v>
       </c>
       <c r="D6" t="n">
-        <v>4.81</v>
+        <v>1.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.655060614034177</v>
+        <v>0.9979908729320314</v>
       </c>
       <c r="F6" t="n">
-        <v>1.622301097905712</v>
+        <v>0.7965321119784333</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.98</v>
+        <v>-20.19</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-qat/1_quant-dynamic_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-qat/1_quant-dynamic_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.457</v>
+        <v>0.4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.457</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.529</v>
+        <v>0.395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.529</v>
+        <v>0.395</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.254</v>
+        <v>0.295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.254</v>
+        <v>0.295</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.007150030112825</v>
+        <v>2.101206500083208</v>
       </c>
       <c r="C4" t="n">
-        <v>2.026558315264992</v>
+        <v>2.131748656043783</v>
       </c>
       <c r="D4" t="n">
-        <v>0.97</v>
+        <v>1.45</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2161019383560794</v>
+        <v>0.2740170044359864</v>
       </c>
       <c r="F4" t="n">
-        <v>0.227769807964789</v>
+        <v>0.3002549292494375</v>
       </c>
       <c r="G4" t="n">
-        <v>5.4</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.563</v>
+        <v>39.773</v>
       </c>
       <c r="C5" t="n">
-        <v>42.563</v>
+        <v>39.773</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.633487024512677</v>
+        <v>9.300337981011037</v>
       </c>
       <c r="C6" t="n">
-        <v>9.76829749634614</v>
+        <v>9.698941397387616</v>
       </c>
       <c r="D6" t="n">
-        <v>1.4</v>
+        <v>4.29</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9979908729320314</v>
+        <v>0.9083657715496826</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7965321119784333</v>
+        <v>0.7729898283345349</v>
       </c>
       <c r="G6" t="n">
-        <v>-20.19</v>
+        <v>-14.9</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-qat/1_quant-dynamic_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-qat/1_quant-dynamic_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
